--- a/nest/src/role/role.xlsx
+++ b/nest/src/role/role.xlsx
@@ -48,7 +48,7 @@
     <t xml:space="preserve">&lt;%=model.rem%&gt;</t>
   </si>
   <si>
-    <t xml:space="preserve">&lt;%~model._is_enabled%&gt;</t>
+    <t xml:space="preserve">&lt;%=model._is_enabled%&gt;</t>
   </si>
   <si>
     <t xml:space="preserve">&lt;%=model._menu_ids%&gt;</t>
